--- a/Data and Software/Overview_FullData_For_4_Academic_Years - 30 October 2023 - 2023.xlsx
+++ b/Data and Software/Overview_FullData_For_4_Academic_Years - 30 October 2023 - 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keneo\Downloads\Data and Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CCB1C5-6D03-483A-B964-46706B8177BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2DBA85-D381-4C86-855B-6AD68396FE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="926" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="52">
   <si>
     <t>Overview</t>
   </si>
@@ -344,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -534,11 +534,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -663,35 +700,11 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -708,8 +721,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -717,17 +742,23 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -738,19 +769,16 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -760,6 +788,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1185,161 +1231,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="16" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="56" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="49" t="s">
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="48"/>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="48"/>
-      <c r="AS1" s="48"/>
-      <c r="AT1" s="48"/>
-      <c r="AU1" s="48"/>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="48"/>
-      <c r="BA1" s="46"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="50"/>
       <c r="BB1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:54" ht="16" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="56" t="s">
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="56" t="s">
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="56" t="s">
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="57" t="s">
+      <c r="Q2" s="49"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="58" t="s">
+      <c r="T2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="56" t="s">
+      <c r="U2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="56" t="s">
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="56" t="s">
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="56" t="s">
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="57" t="s">
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="58" t="s">
+      <c r="AJ2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AK2" s="49" t="s">
+      <c r="AK2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="49" t="s">
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="49" t="s">
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AT2" s="48"/>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="49" t="s">
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="50"/>
+      <c r="AW2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="50" t="s">
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="56" t="s">
         <v>12</v>
       </c>
       <c r="BB2" s="5" t="s">
@@ -1401,8 +1447,8 @@
       <c r="R3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="51"/>
-      <c r="T3" s="59"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="55"/>
       <c r="U3" s="9" t="s">
         <v>16</v>
       </c>
@@ -1445,8 +1491,8 @@
       <c r="AH3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="59"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="55"/>
       <c r="AK3" s="9" t="s">
         <v>16</v>
       </c>
@@ -1495,13 +1541,13 @@
       <c r="AZ3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA3" s="51"/>
+      <c r="BA3" s="53"/>
       <c r="BB3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:54" ht="16" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="57" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1665,7 +1711,7 @@
       </c>
     </row>
     <row r="5" spans="1:54" ht="32" x14ac:dyDescent="0.35">
-      <c r="A5" s="43"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="12" t="s">
         <v>23</v>
       </c>
@@ -1827,7 +1873,7 @@
       </c>
     </row>
     <row r="6" spans="1:54" ht="16" x14ac:dyDescent="0.35">
-      <c r="A6" s="43"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="12" t="s">
         <v>24</v>
       </c>
@@ -1989,7 +2035,7 @@
       </c>
     </row>
     <row r="7" spans="1:54" ht="32" x14ac:dyDescent="0.35">
-      <c r="A7" s="43"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="12" t="s">
         <v>25</v>
       </c>
@@ -2151,7 +2197,7 @@
       </c>
     </row>
     <row r="8" spans="1:54" ht="16" x14ac:dyDescent="0.35">
-      <c r="A8" s="43"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="12" t="s">
         <v>26</v>
       </c>
@@ -2313,7 +2359,7 @@
       </c>
     </row>
     <row r="9" spans="1:54" ht="16" x14ac:dyDescent="0.35">
-      <c r="A9" s="43"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="12" t="s">
         <v>27</v>
       </c>
@@ -2475,7 +2521,7 @@
       </c>
     </row>
     <row r="10" spans="1:54" ht="16" x14ac:dyDescent="0.35">
-      <c r="A10" s="43"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="12" t="s">
         <v>28</v>
       </c>
@@ -2637,7 +2683,7 @@
       </c>
     </row>
     <row r="11" spans="1:54" ht="16" x14ac:dyDescent="0.35">
-      <c r="A11" s="43"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="12" t="s">
         <v>29</v>
       </c>
@@ -2799,7 +2845,7 @@
       </c>
     </row>
     <row r="12" spans="1:54" ht="32" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="12" t="s">
         <v>30</v>
       </c>
@@ -2961,11 +3007,11 @@
       </c>
     </row>
     <row r="13" spans="1:54" ht="16" x14ac:dyDescent="0.35">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="59"/>
+      <c r="B13" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="17">
         <v>1408</v>
       </c>
@@ -3121,7 +3167,7 @@
       </c>
     </row>
     <row r="14" spans="1:54" ht="16" x14ac:dyDescent="0.35">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="57" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -3285,7 +3331,7 @@
       </c>
     </row>
     <row r="15" spans="1:54" ht="32" x14ac:dyDescent="0.35">
-      <c r="A15" s="43"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="12" t="s">
         <v>23</v>
       </c>
@@ -3447,7 +3493,7 @@
       </c>
     </row>
     <row r="16" spans="1:54" ht="16" x14ac:dyDescent="0.35">
-      <c r="A16" s="43"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="12" t="s">
         <v>29</v>
       </c>
@@ -3609,11 +3655,11 @@
       </c>
     </row>
     <row r="17" spans="1:54" ht="16" x14ac:dyDescent="0.35">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45" t="s">
+      <c r="A17" s="59"/>
+      <c r="B17" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="17">
         <v>87</v>
       </c>
@@ -3769,11 +3815,11 @@
       </c>
     </row>
     <row r="18" spans="1:54" ht="16" x14ac:dyDescent="0.35">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="20">
         <v>1495</v>
       </c>
@@ -3931,6 +3977,16 @@
     <row r="19" spans="1:54" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="AW2:AZ2"/>
+    <mergeCell ref="BA2:BA3"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:T1"/>
     <mergeCell ref="U1:AJ1"/>
@@ -3947,16 +4003,6 @@
     <mergeCell ref="AE2:AH2"/>
     <mergeCell ref="AI2:AI3"/>
     <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AN2"/>
-    <mergeCell ref="AO2:AR2"/>
-    <mergeCell ref="AS2:AV2"/>
-    <mergeCell ref="AW2:AZ2"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="1.2374015748031499" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4020,164 +4066,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="65" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="49" t="s">
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="48"/>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="48"/>
-      <c r="AS1" s="48"/>
-      <c r="AT1" s="48"/>
-      <c r="AU1" s="48"/>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="48"/>
-      <c r="BA1" s="48"/>
-      <c r="BB1" s="48"/>
-      <c r="BC1" s="46"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="50"/>
     </row>
     <row r="2" spans="1:55" ht="16" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="56" t="s">
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="48"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="56" t="s">
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="56" t="s">
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="48"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="66" t="s">
+      <c r="R2" s="49"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="58" t="s">
+      <c r="U2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="56" t="s">
+      <c r="V2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="56" t="s">
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="56" t="s">
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="56" t="s">
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="66" t="s">
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="AK2" s="58" t="s">
+      <c r="AK2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AL2" s="49" t="s">
+      <c r="AL2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="49" t="s">
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="49" t="s">
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="49" t="s">
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="46"/>
-      <c r="BB2" s="62" t="s">
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="BC2" s="61" t="s">
+      <c r="BC2" s="67" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4239,8 +4285,8 @@
       <c r="S3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="63"/>
-      <c r="U3" s="59"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="55"/>
       <c r="V3" s="9" t="s">
         <v>16</v>
       </c>
@@ -4283,8 +4329,8 @@
       <c r="AI3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="59"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="55"/>
       <c r="AL3" s="9" t="s">
         <v>16</v>
       </c>
@@ -4333,17 +4379,17 @@
       <c r="BA3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="59"/>
+      <c r="BB3" s="65"/>
+      <c r="BC3" s="55"/>
     </row>
     <row r="4" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -4504,9 +4550,9 @@
       </c>
     </row>
     <row r="5" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="11" t="s">
         <v>28</v>
       </c>
@@ -4665,9 +4711,9 @@
       </c>
     </row>
     <row r="6" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="11" t="s">
         <v>29</v>
       </c>
@@ -4826,9 +4872,9 @@
       </c>
     </row>
     <row r="7" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
@@ -4987,9 +5033,9 @@
       </c>
     </row>
     <row r="8" spans="1:55" ht="32" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="57" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -5150,9 +5196,9 @@
       </c>
     </row>
     <row r="9" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="11" t="s">
         <v>19</v>
       </c>
@@ -5311,9 +5357,9 @@
       </c>
     </row>
     <row r="10" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="42" t="s">
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="57" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -5474,9 +5520,9 @@
       </c>
     </row>
     <row r="11" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="11" t="s">
         <v>28</v>
       </c>
@@ -5635,9 +5681,9 @@
       </c>
     </row>
     <row r="12" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="11" t="s">
         <v>29</v>
       </c>
@@ -5796,9 +5842,9 @@
       </c>
     </row>
     <row r="13" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="11" t="s">
         <v>19</v>
       </c>
@@ -5957,9 +6003,9 @@
       </c>
     </row>
     <row r="14" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="42" t="s">
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="57" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -6120,9 +6166,9 @@
       </c>
     </row>
     <row r="15" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="11" t="s">
         <v>29</v>
       </c>
@@ -6281,9 +6327,9 @@
       </c>
     </row>
     <row r="16" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="11" t="s">
         <v>19</v>
       </c>
@@ -6442,9 +6488,9 @@
       </c>
     </row>
     <row r="17" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="42" t="s">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="57" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -6605,9 +6651,9 @@
       </c>
     </row>
     <row r="18" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="11" t="s">
         <v>29</v>
       </c>
@@ -6766,9 +6812,9 @@
       </c>
     </row>
     <row r="19" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="11" t="s">
         <v>19</v>
       </c>
@@ -6927,9 +6973,9 @@
       </c>
     </row>
     <row r="20" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="42" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="57" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -7090,9 +7136,9 @@
       </c>
     </row>
     <row r="21" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="11" t="s">
         <v>28</v>
       </c>
@@ -7251,9 +7297,9 @@
       </c>
     </row>
     <row r="22" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="11" t="s">
         <v>29</v>
       </c>
@@ -7412,9 +7458,9 @@
       </c>
     </row>
     <row r="23" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="11" t="s">
         <v>19</v>
       </c>
@@ -7573,9 +7619,9 @@
       </c>
     </row>
     <row r="24" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="42" t="s">
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="57" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="11" t="s">
@@ -7736,9 +7782,9 @@
       </c>
     </row>
     <row r="25" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="11" t="s">
         <v>27</v>
       </c>
@@ -7897,9 +7943,9 @@
       </c>
     </row>
     <row r="26" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="11" t="s">
         <v>28</v>
       </c>
@@ -8058,9 +8104,9 @@
       </c>
     </row>
     <row r="27" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="11" t="s">
         <v>19</v>
       </c>
@@ -8219,9 +8265,9 @@
       </c>
     </row>
     <row r="28" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="42" t="s">
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="11" t="s">
@@ -8382,9 +8428,9 @@
       </c>
     </row>
     <row r="29" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="11" t="s">
         <v>27</v>
       </c>
@@ -8543,9 +8589,9 @@
       </c>
     </row>
     <row r="30" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="11" t="s">
         <v>28</v>
       </c>
@@ -8704,9 +8750,9 @@
       </c>
     </row>
     <row r="31" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="11" t="s">
         <v>29</v>
       </c>
@@ -8865,9 +8911,9 @@
       </c>
     </row>
     <row r="32" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="11" t="s">
         <v>30</v>
       </c>
@@ -9026,9 +9072,9 @@
       </c>
     </row>
     <row r="33" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="59"/>
       <c r="D33" s="11" t="s">
         <v>19</v>
       </c>
@@ -9187,9 +9233,9 @@
       </c>
     </row>
     <row r="34" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="42" t="s">
+      <c r="A34" s="58"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="57" t="s">
         <v>43</v>
       </c>
       <c r="D34" s="11" t="s">
@@ -9350,9 +9396,9 @@
       </c>
     </row>
     <row r="35" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="44"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="59"/>
       <c r="D35" s="11" t="s">
         <v>19</v>
       </c>
@@ -9511,9 +9557,9 @@
       </c>
     </row>
     <row r="36" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="42" t="s">
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="57" t="s">
         <v>44</v>
       </c>
       <c r="D36" s="11" t="s">
@@ -9674,9 +9720,9 @@
       </c>
     </row>
     <row r="37" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="11" t="s">
         <v>27</v>
       </c>
@@ -9835,9 +9881,9 @@
       </c>
     </row>
     <row r="38" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
       <c r="D38" s="11" t="s">
         <v>28</v>
       </c>
@@ -9996,9 +10042,9 @@
       </c>
     </row>
     <row r="39" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="11" t="s">
         <v>29</v>
       </c>
@@ -10157,9 +10203,9 @@
       </c>
     </row>
     <row r="40" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="44"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="11" t="s">
         <v>19</v>
       </c>
@@ -10318,9 +10364,9 @@
       </c>
     </row>
     <row r="41" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="42" t="s">
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="57" t="s">
         <v>45</v>
       </c>
       <c r="D41" s="11" t="s">
@@ -10481,9 +10527,9 @@
       </c>
     </row>
     <row r="42" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="11" t="s">
         <v>27</v>
       </c>
@@ -10642,9 +10688,9 @@
       </c>
     </row>
     <row r="43" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
       <c r="D43" s="11" t="s">
         <v>28</v>
       </c>
@@ -10803,9 +10849,9 @@
       </c>
     </row>
     <row r="44" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="44"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="59"/>
       <c r="D44" s="11" t="s">
         <v>19</v>
       </c>
@@ -10964,9 +11010,9 @@
       </c>
     </row>
     <row r="45" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="42" t="s">
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="57" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="11" t="s">
@@ -11127,9 +11173,9 @@
       </c>
     </row>
     <row r="46" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
       <c r="D46" s="11" t="s">
         <v>28</v>
       </c>
@@ -11288,9 +11334,9 @@
       </c>
     </row>
     <row r="47" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
       <c r="D47" s="11" t="s">
         <v>29</v>
       </c>
@@ -11449,9 +11495,9 @@
       </c>
     </row>
     <row r="48" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="44"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="59"/>
       <c r="D48" s="11" t="s">
         <v>19</v>
       </c>
@@ -11610,9 +11656,9 @@
       </c>
     </row>
     <row r="49" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="42" t="s">
+      <c r="A49" s="58"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="57" t="s">
         <v>47</v>
       </c>
       <c r="D49" s="11" t="s">
@@ -11773,9 +11819,9 @@
       </c>
     </row>
     <row r="50" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
       <c r="D50" s="11" t="s">
         <v>28</v>
       </c>
@@ -11934,9 +11980,9 @@
       </c>
     </row>
     <row r="51" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="44"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
       <c r="D51" s="11" t="s">
         <v>19</v>
       </c>
@@ -12095,9 +12141,9 @@
       </c>
     </row>
     <row r="52" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="42" t="s">
+      <c r="A52" s="58"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="57" t="s">
         <v>48</v>
       </c>
       <c r="D52" s="11" t="s">
@@ -12258,9 +12304,9 @@
       </c>
     </row>
     <row r="53" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
       <c r="D53" s="11" t="s">
         <v>28</v>
       </c>
@@ -12419,9 +12465,9 @@
       </c>
     </row>
     <row r="54" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="58"/>
       <c r="D54" s="11" t="s">
         <v>29</v>
       </c>
@@ -12580,9 +12626,9 @@
       </c>
     </row>
     <row r="55" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="44"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="59"/>
       <c r="D55" s="11" t="s">
         <v>19</v>
       </c>
@@ -12741,12 +12787,12 @@
       </c>
     </row>
     <row r="56" spans="1:55" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="43"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="42" t="s">
+      <c r="A56" s="58"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="46"/>
+      <c r="D56" s="50"/>
       <c r="E56" s="14">
         <v>1362</v>
       </c>
@@ -12902,7 +12948,7 @@
       </c>
     </row>
     <row r="57" spans="1:55" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="43"/>
+      <c r="A57" s="58"/>
       <c r="B57" s="33" t="s">
         <v>1</v>
       </c>
@@ -13067,11 +13113,11 @@
       </c>
     </row>
     <row r="58" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A58" s="43"/>
-      <c r="B58" s="42" t="s">
+      <c r="A58" s="58"/>
+      <c r="B58" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="42" t="s">
+      <c r="C58" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D58" s="11" t="s">
@@ -13232,9 +13278,9 @@
       </c>
     </row>
     <row r="59" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="44"/>
+      <c r="A59" s="58"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="59"/>
       <c r="D59" s="11" t="s">
         <v>19</v>
       </c>
@@ -13393,9 +13439,9 @@
       </c>
     </row>
     <row r="60" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="42" t="s">
+      <c r="A60" s="58"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="57" t="s">
         <v>36</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -13556,9 +13602,9 @@
       </c>
     </row>
     <row r="61" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="44"/>
+      <c r="A61" s="58"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="59"/>
       <c r="D61" s="11" t="s">
         <v>19</v>
       </c>
@@ -13717,9 +13763,9 @@
       </c>
     </row>
     <row r="62" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="42" t="s">
+      <c r="A62" s="58"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="57" t="s">
         <v>37</v>
       </c>
       <c r="D62" s="11" t="s">
@@ -13880,9 +13926,9 @@
       </c>
     </row>
     <row r="63" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="44"/>
+      <c r="A63" s="58"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="59"/>
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
@@ -14041,9 +14087,9 @@
       </c>
     </row>
     <row r="64" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="42" t="s">
+      <c r="A64" s="58"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="57" t="s">
         <v>38</v>
       </c>
       <c r="D64" s="11" t="s">
@@ -14204,9 +14250,9 @@
       </c>
     </row>
     <row r="65" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="44"/>
+      <c r="A65" s="58"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="59"/>
       <c r="D65" s="11" t="s">
         <v>19</v>
       </c>
@@ -14365,9 +14411,9 @@
       </c>
     </row>
     <row r="66" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="42" t="s">
+      <c r="A66" s="58"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="57" t="s">
         <v>39</v>
       </c>
       <c r="D66" s="11" t="s">
@@ -14528,9 +14574,9 @@
       </c>
     </row>
     <row r="67" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="44"/>
+      <c r="A67" s="58"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="59"/>
       <c r="D67" s="11" t="s">
         <v>19</v>
       </c>
@@ -14689,9 +14735,9 @@
       </c>
     </row>
     <row r="68" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="42" t="s">
+      <c r="A68" s="58"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D68" s="11" t="s">
@@ -14852,9 +14898,9 @@
       </c>
     </row>
     <row r="69" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="44"/>
+      <c r="A69" s="58"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="59"/>
       <c r="D69" s="11" t="s">
         <v>19</v>
       </c>
@@ -15013,9 +15059,9 @@
       </c>
     </row>
     <row r="70" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A70" s="43"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="42" t="s">
+      <c r="A70" s="58"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="57" t="s">
         <v>44</v>
       </c>
       <c r="D70" s="11" t="s">
@@ -15176,9 +15222,9 @@
       </c>
     </row>
     <row r="71" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
+      <c r="A71" s="58"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="58"/>
       <c r="D71" s="11" t="s">
         <v>23</v>
       </c>
@@ -15337,9 +15383,9 @@
       </c>
     </row>
     <row r="72" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="44"/>
+      <c r="A72" s="58"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="59"/>
       <c r="D72" s="11" t="s">
         <v>19</v>
       </c>
@@ -15498,9 +15544,9 @@
       </c>
     </row>
     <row r="73" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="42" t="s">
+      <c r="A73" s="58"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="57" t="s">
         <v>46</v>
       </c>
       <c r="D73" s="11" t="s">
@@ -15661,9 +15707,9 @@
       </c>
     </row>
     <row r="74" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="44"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="59"/>
       <c r="D74" s="11" t="s">
         <v>19</v>
       </c>
@@ -15822,9 +15868,9 @@
       </c>
     </row>
     <row r="75" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="42" t="s">
+      <c r="A75" s="58"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="57" t="s">
         <v>48</v>
       </c>
       <c r="D75" s="11" t="s">
@@ -15985,9 +16031,9 @@
       </c>
     </row>
     <row r="76" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="44"/>
+      <c r="A76" s="58"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="59"/>
       <c r="D76" s="11" t="s">
         <v>19</v>
       </c>
@@ -16146,12 +16192,12 @@
       </c>
     </row>
     <row r="77" spans="1:55" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="43"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="42" t="s">
+      <c r="A77" s="58"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="46"/>
+      <c r="D77" s="50"/>
       <c r="E77" s="14">
         <v>46</v>
       </c>
@@ -16307,7 +16353,7 @@
       </c>
     </row>
     <row r="78" spans="1:55" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="43"/>
+      <c r="A78" s="58"/>
       <c r="B78" s="33" t="s">
         <v>1</v>
       </c>
@@ -16472,12 +16518,12 @@
       </c>
     </row>
     <row r="79" spans="1:55" ht="16" x14ac:dyDescent="0.35">
-      <c r="A79" s="44"/>
-      <c r="B79" s="60" t="s">
+      <c r="A79" s="59"/>
+      <c r="B79" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="48"/>
-      <c r="D79" s="46"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="50"/>
       <c r="E79" s="14">
         <v>1408</v>
       </c>
@@ -16800,13 +16846,13 @@
       </c>
     </row>
     <row r="81" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A81" s="42" t="s">
+      <c r="A81" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B81" s="42" t="s">
+      <c r="B81" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="42" t="s">
+      <c r="C81" s="57" t="s">
         <v>50</v>
       </c>
       <c r="D81" s="11" t="s">
@@ -16967,9 +17013,9 @@
       </c>
     </row>
     <row r="82" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="44"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="59"/>
       <c r="D82" s="11" t="s">
         <v>19</v>
       </c>
@@ -17128,12 +17174,12 @@
       </c>
     </row>
     <row r="83" spans="1:55" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="43"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="42" t="s">
+      <c r="A83" s="58"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="46"/>
+      <c r="D83" s="50"/>
       <c r="E83" s="14">
         <v>87</v>
       </c>
@@ -17289,7 +17335,7 @@
       </c>
     </row>
     <row r="84" spans="1:55" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="43"/>
+      <c r="A84" s="58"/>
       <c r="B84" s="33" t="s">
         <v>1</v>
       </c>
@@ -17454,11 +17500,11 @@
       </c>
     </row>
     <row r="85" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A85" s="43"/>
-      <c r="B85" s="42" t="s">
+      <c r="A85" s="58"/>
+      <c r="B85" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C85" s="42" t="s">
+      <c r="C85" s="57" t="s">
         <v>50</v>
       </c>
       <c r="D85" s="11" t="s">
@@ -17619,9 +17665,9 @@
       </c>
     </row>
     <row r="86" spans="1:55" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="58"/>
       <c r="D86" s="11" t="s">
         <v>23</v>
       </c>
@@ -17780,9 +17826,9 @@
       </c>
     </row>
     <row r="87" spans="1:55" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A87" s="43"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="44"/>
+      <c r="A87" s="58"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="59"/>
       <c r="D87" s="11" t="s">
         <v>19</v>
       </c>
@@ -17941,12 +17987,12 @@
       </c>
     </row>
     <row r="88" spans="1:55" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="43"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="42" t="s">
+      <c r="A88" s="58"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="46"/>
+      <c r="D88" s="50"/>
       <c r="E88" s="14">
         <v>0</v>
       </c>
@@ -18102,7 +18148,7 @@
       </c>
     </row>
     <row r="89" spans="1:55" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="43"/>
+      <c r="A89" s="58"/>
       <c r="B89" s="33" t="s">
         <v>1</v>
       </c>
@@ -18267,12 +18313,12 @@
       </c>
     </row>
     <row r="90" spans="1:55" ht="16" x14ac:dyDescent="0.35">
-      <c r="A90" s="44"/>
-      <c r="B90" s="60" t="s">
+      <c r="A90" s="59"/>
+      <c r="B90" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C90" s="48"/>
-      <c r="D90" s="46"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="50"/>
       <c r="E90" s="14">
         <v>87</v>
       </c>
@@ -18595,12 +18641,12 @@
       </c>
     </row>
     <row r="92" spans="1:55" ht="16" x14ac:dyDescent="0.35">
-      <c r="A92" s="47" t="s">
+      <c r="A92" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B92" s="48"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="46"/>
+      <c r="B92" s="49"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="50"/>
       <c r="E92" s="20">
         <v>1495</v>
       </c>
@@ -18758,6 +18804,50 @@
     <row r="93" spans="1:55" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B58:B77"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="A4:A79"/>
+    <mergeCell ref="B4:B56"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="AX2:BA2"/>
+    <mergeCell ref="BB2:BB3"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="F1:U1"/>
     <mergeCell ref="V1:AK1"/>
@@ -18774,50 +18864,6 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="AX2:BA2"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="A4:A79"/>
-    <mergeCell ref="B4:B56"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B58:B77"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="A81:A90"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="B90:D90"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="1.2374015748031499" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -18832,10 +18878,10 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="3" x14ac:dyDescent="0.35"/>
@@ -18848,40 +18894,42 @@
     <col min="6" max="6" width="13.453125" customWidth="1"/>
     <col min="7" max="7" width="13.54296875" customWidth="1"/>
     <col min="8" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" customWidth="1"/>
+    <col min="10" max="11" width="13.54296875" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" customWidth="1"/>
+    <col min="14" max="14" width="13.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" customWidth="1"/>
+    <col min="16" max="17" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="68" t="s">
+    <row r="1" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="68" t="s">
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="68" t="s">
+      <c r="J1" s="76"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="68" t="s">
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="67"/>
-    </row>
-    <row r="2" spans="1:15" ht="28" x14ac:dyDescent="0.35">
+      <c r="P1" s="72"/>
+      <c r="Q1" s="73"/>
+    </row>
+    <row r="2" spans="1:17" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="39" t="s">
         <v>32</v>
       </c>
@@ -18894,7 +18942,7 @@
       <c r="D2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="42" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="40" t="s">
@@ -18913,22 +18961,28 @@
         <v>17</v>
       </c>
       <c r="K2" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="M2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="N2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="O2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="P2" s="40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q2" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>21</v>
       </c>
@@ -18941,7 +18995,7 @@
       <c r="D3" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="43">
         <v>0</v>
       </c>
       <c r="F3" s="40">
@@ -18974,8 +19028,14 @@
       <c r="O3" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P3" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>21</v>
       </c>
@@ -18988,7 +19048,7 @@
       <c r="D4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="43">
         <v>5</v>
       </c>
       <c r="F4" s="40">
@@ -19007,22 +19067,28 @@
         <v>4</v>
       </c>
       <c r="K4" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="40">
+        <v>1</v>
+      </c>
+      <c r="M4" s="40">
         <v>2</v>
       </c>
-      <c r="M4" s="40">
-        <v>0</v>
-      </c>
       <c r="N4" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P4" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>21</v>
       </c>
@@ -19035,7 +19101,7 @@
       <c r="D5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="43">
         <v>6</v>
       </c>
       <c r="F5" s="40">
@@ -19054,22 +19120,28 @@
         <v>2</v>
       </c>
       <c r="K5" s="40">
+        <v>0</v>
+      </c>
+      <c r="L5" s="40">
         <v>4</v>
       </c>
-      <c r="L5" s="40">
-        <v>1</v>
-      </c>
       <c r="M5" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="40">
+        <v>0</v>
+      </c>
+      <c r="O5" s="40">
         <v>8</v>
       </c>
-      <c r="O5" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P5" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>21</v>
       </c>
@@ -19082,7 +19154,7 @@
       <c r="D6" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="43">
         <v>0</v>
       </c>
       <c r="F6" s="40">
@@ -19113,10 +19185,16 @@
         <v>0</v>
       </c>
       <c r="O6" s="40">
+        <v>0</v>
+      </c>
+      <c r="P6" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q6" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
         <v>21</v>
       </c>
@@ -19129,7 +19207,7 @@
       <c r="D7" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="43">
         <v>4</v>
       </c>
       <c r="F7" s="40">
@@ -19148,22 +19226,28 @@
         <v>0</v>
       </c>
       <c r="K7" s="40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="40">
         <v>3</v>
       </c>
       <c r="M7" s="40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7" s="40">
+        <v>0</v>
+      </c>
+      <c r="O7" s="40">
         <v>3</v>
       </c>
-      <c r="O7" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P7" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
         <v>21</v>
       </c>
@@ -19176,7 +19260,7 @@
       <c r="D8" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="43">
         <v>14</v>
       </c>
       <c r="F8" s="40">
@@ -19195,22 +19279,28 @@
         <v>8</v>
       </c>
       <c r="K8" s="40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L8" s="40">
         <v>10</v>
       </c>
       <c r="M8" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N8" s="40">
+        <v>0</v>
+      </c>
+      <c r="O8" s="40">
         <v>14</v>
       </c>
-      <c r="O8" s="40">
+      <c r="P8" s="40">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q8" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>21</v>
       </c>
@@ -19223,7 +19313,7 @@
       <c r="D9" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="43">
         <v>29</v>
       </c>
       <c r="F9" s="40">
@@ -19242,22 +19332,28 @@
         <v>6</v>
       </c>
       <c r="K9" s="40">
+        <v>0</v>
+      </c>
+      <c r="L9" s="40">
         <v>18</v>
       </c>
-      <c r="L9" s="40">
+      <c r="M9" s="40">
         <v>5</v>
       </c>
-      <c r="M9" s="40">
-        <v>0</v>
-      </c>
       <c r="N9" s="40">
+        <v>0</v>
+      </c>
+      <c r="O9" s="40">
         <v>12</v>
       </c>
-      <c r="O9" s="40">
+      <c r="P9" s="40">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q9" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="41" t="s">
         <v>21</v>
       </c>
@@ -19270,7 +19366,7 @@
       <c r="D10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="43">
         <v>3</v>
       </c>
       <c r="F10" s="40">
@@ -19289,22 +19385,28 @@
         <v>0</v>
       </c>
       <c r="K10" s="40">
+        <v>0</v>
+      </c>
+      <c r="L10" s="40">
         <v>4</v>
       </c>
-      <c r="L10" s="40">
-        <v>1</v>
-      </c>
       <c r="M10" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="40">
+        <v>0</v>
+      </c>
+      <c r="O10" s="40">
         <v>4</v>
       </c>
-      <c r="O10" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P10" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="41" t="s">
         <v>21</v>
       </c>
@@ -19317,7 +19419,7 @@
       <c r="D11" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="43">
         <v>10</v>
       </c>
       <c r="F11" s="40">
@@ -19336,22 +19438,28 @@
         <v>1</v>
       </c>
       <c r="K11" s="40">
+        <v>0</v>
+      </c>
+      <c r="L11" s="40">
         <v>7</v>
       </c>
-      <c r="L11" s="40">
+      <c r="M11" s="40">
         <v>3</v>
       </c>
-      <c r="M11" s="40">
-        <v>0</v>
-      </c>
       <c r="N11" s="40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O11" s="40">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P11" s="40">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
         <v>21</v>
       </c>
@@ -19364,7 +19472,7 @@
       <c r="D12" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="43">
         <v>0</v>
       </c>
       <c r="F12" s="40">
@@ -19397,8 +19505,14 @@
       <c r="O12" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P12" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
         <v>21</v>
       </c>
@@ -19411,7 +19525,7 @@
       <c r="D13" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="43">
         <v>4</v>
       </c>
       <c r="F13" s="40">
@@ -19430,22 +19544,28 @@
         <v>1</v>
       </c>
       <c r="K13" s="40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L13" s="40">
         <v>2</v>
       </c>
       <c r="M13" s="40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="40">
+        <v>0</v>
+      </c>
+      <c r="O13" s="40">
         <v>3</v>
       </c>
-      <c r="O13" s="40">
+      <c r="P13" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q13" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A14" s="41" t="s">
         <v>21</v>
       </c>
@@ -19458,7 +19578,7 @@
       <c r="D14" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="43">
         <v>10</v>
       </c>
       <c r="F14" s="40">
@@ -19477,22 +19597,28 @@
         <v>0</v>
       </c>
       <c r="K14" s="40">
+        <v>0</v>
+      </c>
+      <c r="L14" s="40">
         <v>6</v>
       </c>
-      <c r="L14" s="40">
-        <v>1</v>
-      </c>
       <c r="M14" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="40">
+        <v>0</v>
+      </c>
+      <c r="O14" s="40">
         <v>3</v>
       </c>
-      <c r="O14" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P14" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="41" t="s">
         <v>21</v>
       </c>
@@ -19505,7 +19631,7 @@
       <c r="D15" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="71">
+      <c r="E15" s="43">
         <v>12</v>
       </c>
       <c r="F15" s="40">
@@ -19524,22 +19650,28 @@
         <v>5</v>
       </c>
       <c r="K15" s="40">
+        <v>0</v>
+      </c>
+      <c r="L15" s="40">
         <v>8</v>
       </c>
-      <c r="L15" s="40">
+      <c r="M15" s="40">
         <v>3</v>
       </c>
-      <c r="M15" s="40">
-        <v>0</v>
-      </c>
       <c r="N15" s="40">
+        <v>0</v>
+      </c>
+      <c r="O15" s="40">
         <v>6</v>
       </c>
-      <c r="O15" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P15" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A16" s="41" t="s">
         <v>21</v>
       </c>
@@ -19552,7 +19684,7 @@
       <c r="D16" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="43">
         <v>3</v>
       </c>
       <c r="F16" s="40">
@@ -19571,22 +19703,28 @@
         <v>0</v>
       </c>
       <c r="K16" s="40">
+        <v>0</v>
+      </c>
+      <c r="L16" s="40">
         <v>2</v>
       </c>
-      <c r="L16" s="40">
-        <v>0</v>
-      </c>
       <c r="M16" s="40">
         <v>0</v>
       </c>
       <c r="N16" s="40">
+        <v>0</v>
+      </c>
+      <c r="O16" s="40">
         <v>2</v>
       </c>
-      <c r="O16" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P16" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A17" s="41" t="s">
         <v>21</v>
       </c>
@@ -19599,7 +19737,7 @@
       <c r="D17" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="71">
+      <c r="E17" s="43">
         <v>21</v>
       </c>
       <c r="F17" s="40">
@@ -19618,22 +19756,28 @@
         <v>0</v>
       </c>
       <c r="K17" s="40">
+        <v>0</v>
+      </c>
+      <c r="L17" s="40">
         <v>14</v>
       </c>
-      <c r="L17" s="40">
-        <v>0</v>
-      </c>
       <c r="M17" s="40">
         <v>0</v>
       </c>
       <c r="N17" s="40">
+        <v>0</v>
+      </c>
+      <c r="O17" s="40">
         <v>12</v>
       </c>
-      <c r="O17" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P17" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A18" s="41" t="s">
         <v>21</v>
       </c>
@@ -19646,7 +19790,7 @@
       <c r="D18" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="43">
         <v>42</v>
       </c>
       <c r="F18" s="40">
@@ -19665,22 +19809,28 @@
         <v>3</v>
       </c>
       <c r="K18" s="40">
+        <v>0</v>
+      </c>
+      <c r="L18" s="40">
         <v>43</v>
       </c>
-      <c r="L18" s="40">
+      <c r="M18" s="40">
         <v>5</v>
       </c>
-      <c r="M18" s="40">
-        <v>0</v>
-      </c>
       <c r="N18" s="40">
+        <v>0</v>
+      </c>
+      <c r="O18" s="40">
         <v>32</v>
       </c>
-      <c r="O18" s="40">
+      <c r="P18" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q18" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="41" t="s">
         <v>21</v>
       </c>
@@ -19693,7 +19843,7 @@
       <c r="D19" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="43">
         <v>0</v>
       </c>
       <c r="F19" s="40">
@@ -19721,13 +19871,19 @@
         <v>0</v>
       </c>
       <c r="N19" s="40">
+        <v>0</v>
+      </c>
+      <c r="O19" s="40">
         <v>5</v>
       </c>
-      <c r="O19" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P19" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="41" t="s">
         <v>21</v>
       </c>
@@ -19740,7 +19896,7 @@
       <c r="D20" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="43">
         <v>0</v>
       </c>
       <c r="F20" s="40">
@@ -19773,8 +19929,14 @@
       <c r="O20" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P20" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A21" s="41" t="s">
         <v>21</v>
       </c>
@@ -19787,7 +19949,7 @@
       <c r="D21" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="71">
+      <c r="E21" s="43">
         <v>1</v>
       </c>
       <c r="F21" s="40">
@@ -19806,10 +19968,10 @@
         <v>1</v>
       </c>
       <c r="K21" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="40">
         <v>0</v>
@@ -19820,8 +19982,14 @@
       <c r="O21" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P21" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="41" t="s">
         <v>21</v>
       </c>
@@ -19834,7 +20002,7 @@
       <c r="D22" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="43">
         <v>12</v>
       </c>
       <c r="F22" s="40">
@@ -19853,22 +20021,28 @@
         <v>8</v>
       </c>
       <c r="K22" s="40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L22" s="40">
         <v>4</v>
       </c>
       <c r="M22" s="40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N22" s="40">
+        <v>0</v>
+      </c>
+      <c r="O22" s="40">
         <v>7</v>
       </c>
-      <c r="O22" s="40">
+      <c r="P22" s="40">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q22" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="41" t="s">
         <v>21</v>
       </c>
@@ -19881,7 +20055,7 @@
       <c r="D23" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="71">
+      <c r="E23" s="43">
         <v>21</v>
       </c>
       <c r="F23" s="40">
@@ -19900,22 +20074,28 @@
         <v>7</v>
       </c>
       <c r="K23" s="40">
+        <v>0</v>
+      </c>
+      <c r="L23" s="40">
         <v>13</v>
       </c>
-      <c r="L23" s="40">
-        <v>1</v>
-      </c>
       <c r="M23" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="40">
+        <v>0</v>
+      </c>
+      <c r="O23" s="40">
         <v>19</v>
       </c>
-      <c r="O23" s="40">
+      <c r="P23" s="40">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q23" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="41" t="s">
         <v>21</v>
       </c>
@@ -19928,7 +20108,7 @@
       <c r="D24" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="71">
+      <c r="E24" s="43">
         <v>0</v>
       </c>
       <c r="F24" s="40">
@@ -19961,8 +20141,14 @@
       <c r="O24" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P24" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="41" t="s">
         <v>21</v>
       </c>
@@ -19975,7 +20161,7 @@
       <c r="D25" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="71">
+      <c r="E25" s="43">
         <v>0</v>
       </c>
       <c r="F25" s="40">
@@ -19994,22 +20180,28 @@
         <v>0</v>
       </c>
       <c r="K25" s="40">
+        <v>0</v>
+      </c>
+      <c r="L25" s="40">
         <v>2</v>
       </c>
-      <c r="L25" s="40">
-        <v>0</v>
-      </c>
       <c r="M25" s="40">
         <v>0</v>
       </c>
       <c r="N25" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P25" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="41" t="s">
         <v>21</v>
       </c>
@@ -20022,7 +20214,7 @@
       <c r="D26" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="71">
+      <c r="E26" s="43">
         <v>33</v>
       </c>
       <c r="F26" s="40">
@@ -20041,22 +20233,28 @@
         <v>0</v>
       </c>
       <c r="K26" s="40">
+        <v>0</v>
+      </c>
+      <c r="L26" s="40">
         <v>22</v>
       </c>
-      <c r="L26" s="40">
-        <v>0</v>
-      </c>
       <c r="M26" s="40">
         <v>0</v>
       </c>
       <c r="N26" s="40">
+        <v>0</v>
+      </c>
+      <c r="O26" s="40">
         <v>13</v>
       </c>
-      <c r="O26" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P26" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="41" t="s">
         <v>21</v>
       </c>
@@ -20069,7 +20267,7 @@
       <c r="D27" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="71">
+      <c r="E27" s="43">
         <v>4</v>
       </c>
       <c r="F27" s="40">
@@ -20100,10 +20298,16 @@
         <v>0</v>
       </c>
       <c r="O27" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="P27" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="41" t="s">
         <v>21</v>
       </c>
@@ -20116,7 +20320,7 @@
       <c r="D28" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="71">
+      <c r="E28" s="43">
         <v>3</v>
       </c>
       <c r="F28" s="40">
@@ -20138,19 +20342,25 @@
         <v>0</v>
       </c>
       <c r="L28" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="40">
         <v>0</v>
       </c>
       <c r="O28" s="40">
+        <v>0</v>
+      </c>
+      <c r="P28" s="40">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q28" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="41" t="s">
         <v>21</v>
       </c>
@@ -20163,7 +20373,7 @@
       <c r="D29" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="71">
+      <c r="E29" s="43">
         <v>70</v>
       </c>
       <c r="F29" s="40">
@@ -20182,22 +20392,28 @@
         <v>62</v>
       </c>
       <c r="K29" s="40">
+        <v>0</v>
+      </c>
+      <c r="L29" s="40">
         <v>6</v>
       </c>
-      <c r="L29" s="40">
+      <c r="M29" s="40">
         <v>4</v>
       </c>
-      <c r="M29" s="40">
-        <v>0</v>
-      </c>
       <c r="N29" s="40">
+        <v>0</v>
+      </c>
+      <c r="O29" s="40">
         <v>6</v>
       </c>
-      <c r="O29" s="40">
+      <c r="P29" s="40">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q29" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="41" t="s">
         <v>21</v>
       </c>
@@ -20210,7 +20426,7 @@
       <c r="D30" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="71">
+      <c r="E30" s="43">
         <v>15</v>
       </c>
       <c r="F30" s="40">
@@ -20229,22 +20445,28 @@
         <v>0</v>
       </c>
       <c r="K30" s="40">
+        <v>0</v>
+      </c>
+      <c r="L30" s="40">
         <v>17</v>
       </c>
-      <c r="L30" s="40">
-        <v>1</v>
-      </c>
       <c r="M30" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="40">
+        <v>0</v>
+      </c>
+      <c r="O30" s="40">
         <v>17</v>
       </c>
-      <c r="O30" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P30" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="41" t="s">
         <v>21</v>
       </c>
@@ -20257,7 +20479,7 @@
       <c r="D31" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="71">
+      <c r="E31" s="43">
         <v>7</v>
       </c>
       <c r="F31" s="40">
@@ -20276,22 +20498,28 @@
         <v>4</v>
       </c>
       <c r="K31" s="40">
+        <v>0</v>
+      </c>
+      <c r="L31" s="40">
         <v>5</v>
       </c>
-      <c r="L31" s="40">
-        <v>1</v>
-      </c>
       <c r="M31" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="40">
+        <v>0</v>
+      </c>
+      <c r="O31" s="40">
         <v>7</v>
       </c>
-      <c r="O31" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P31" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A32" s="41" t="s">
         <v>21</v>
       </c>
@@ -20304,7 +20532,7 @@
       <c r="D32" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="71">
+      <c r="E32" s="43">
         <v>922</v>
       </c>
       <c r="F32" s="40">
@@ -20323,22 +20551,28 @@
         <v>134</v>
       </c>
       <c r="K32" s="40">
+        <v>0</v>
+      </c>
+      <c r="L32" s="40">
         <v>982</v>
       </c>
-      <c r="L32" s="40">
+      <c r="M32" s="40">
         <v>147</v>
       </c>
-      <c r="M32" s="40">
+      <c r="N32" s="40">
         <v>15</v>
       </c>
-      <c r="N32" s="40">
+      <c r="O32" s="40">
         <v>765</v>
       </c>
-      <c r="O32" s="40">
+      <c r="P32" s="40">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q32" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A33" s="41" t="s">
         <v>21</v>
       </c>
@@ -20351,7 +20585,7 @@
       <c r="D33" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="71">
+      <c r="E33" s="43">
         <v>1</v>
       </c>
       <c r="F33" s="40">
@@ -20370,10 +20604,10 @@
         <v>0</v>
       </c>
       <c r="K33" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="40">
         <v>0</v>
@@ -20384,8 +20618,14 @@
       <c r="O33" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P33" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="41" t="s">
         <v>21</v>
       </c>
@@ -20398,7 +20638,7 @@
       <c r="D34" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="71">
+      <c r="E34" s="43">
         <v>5</v>
       </c>
       <c r="F34" s="40">
@@ -20429,10 +20669,16 @@
         <v>0</v>
       </c>
       <c r="O34" s="40">
+        <v>0</v>
+      </c>
+      <c r="P34" s="40">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q34" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="41" t="s">
         <v>21</v>
       </c>
@@ -20445,7 +20691,7 @@
       <c r="D35" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="71">
+      <c r="E35" s="43">
         <v>50</v>
       </c>
       <c r="F35" s="40">
@@ -20464,22 +20710,28 @@
         <v>26</v>
       </c>
       <c r="K35" s="40">
+        <v>0</v>
+      </c>
+      <c r="L35" s="40">
         <v>39</v>
       </c>
-      <c r="L35" s="40">
+      <c r="M35" s="40">
         <v>16</v>
       </c>
-      <c r="M35" s="40">
-        <v>0</v>
-      </c>
       <c r="N35" s="40">
+        <v>0</v>
+      </c>
+      <c r="O35" s="40">
         <v>37</v>
       </c>
-      <c r="O35" s="40">
+      <c r="P35" s="40">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q35" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="41" t="s">
         <v>21</v>
       </c>
@@ -20492,7 +20744,7 @@
       <c r="D36" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="71">
+      <c r="E36" s="43">
         <v>0</v>
       </c>
       <c r="F36" s="40">
@@ -20525,8 +20777,14 @@
       <c r="O36" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P36" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="41" t="s">
         <v>21</v>
       </c>
@@ -20539,7 +20797,7 @@
       <c r="D37" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="71">
+      <c r="E37" s="43">
         <v>32</v>
       </c>
       <c r="F37" s="40">
@@ -20558,22 +20816,28 @@
         <v>8</v>
       </c>
       <c r="K37" s="40">
+        <v>0</v>
+      </c>
+      <c r="L37" s="40">
         <v>26</v>
       </c>
-      <c r="L37" s="40">
+      <c r="M37" s="40">
         <v>5</v>
       </c>
-      <c r="M37" s="40">
-        <v>0</v>
-      </c>
       <c r="N37" s="40">
+        <v>0</v>
+      </c>
+      <c r="O37" s="40">
         <v>16</v>
       </c>
-      <c r="O37" s="40">
+      <c r="P37" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q37" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A38" s="41" t="s">
         <v>21</v>
       </c>
@@ -20586,7 +20850,7 @@
       <c r="D38" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="71">
+      <c r="E38" s="43">
         <v>1</v>
       </c>
       <c r="F38" s="40">
@@ -20605,22 +20869,28 @@
         <v>0</v>
       </c>
       <c r="K38" s="40">
+        <v>0</v>
+      </c>
+      <c r="L38" s="40">
         <v>5</v>
       </c>
-      <c r="L38" s="40">
-        <v>0</v>
-      </c>
       <c r="M38" s="40">
         <v>0</v>
       </c>
       <c r="N38" s="40">
+        <v>0</v>
+      </c>
+      <c r="O38" s="40">
         <v>3</v>
       </c>
-      <c r="O38" s="40">
+      <c r="P38" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q38" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A39" s="41" t="s">
         <v>21</v>
       </c>
@@ -20633,7 +20903,7 @@
       <c r="D39" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="71">
+      <c r="E39" s="43">
         <v>3</v>
       </c>
       <c r="F39" s="40">
@@ -20652,22 +20922,28 @@
         <v>1</v>
       </c>
       <c r="K39" s="40">
+        <v>0</v>
+      </c>
+      <c r="L39" s="40">
         <v>3</v>
       </c>
-      <c r="L39" s="40">
-        <v>1</v>
-      </c>
       <c r="M39" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="40">
+        <v>0</v>
+      </c>
+      <c r="O39" s="40">
         <v>4</v>
       </c>
-      <c r="O39" s="40">
+      <c r="P39" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q39" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A40" s="41" t="s">
         <v>21</v>
       </c>
@@ -20680,7 +20956,7 @@
       <c r="D40" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="71">
+      <c r="E40" s="43">
         <v>19</v>
       </c>
       <c r="F40" s="40">
@@ -20699,22 +20975,28 @@
         <v>4</v>
       </c>
       <c r="K40" s="40">
+        <v>0</v>
+      </c>
+      <c r="L40" s="40">
         <v>15</v>
       </c>
-      <c r="L40" s="40">
+      <c r="M40" s="40">
         <v>3</v>
       </c>
-      <c r="M40" s="40">
-        <v>0</v>
-      </c>
       <c r="N40" s="40">
+        <v>0</v>
+      </c>
+      <c r="O40" s="40">
         <v>41</v>
       </c>
-      <c r="O40" s="40">
+      <c r="P40" s="40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q40" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A41" s="41" t="s">
         <v>21</v>
       </c>
@@ -20727,7 +21009,7 @@
       <c r="D41" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="71">
+      <c r="E41" s="43">
         <v>4</v>
       </c>
       <c r="F41" s="40">
@@ -20746,22 +21028,28 @@
         <v>4</v>
       </c>
       <c r="K41" s="40">
+        <v>0</v>
+      </c>
+      <c r="L41" s="40">
         <v>4</v>
       </c>
-      <c r="L41" s="40">
-        <v>0</v>
-      </c>
       <c r="M41" s="40">
         <v>0</v>
       </c>
       <c r="N41" s="40">
+        <v>0</v>
+      </c>
+      <c r="O41" s="40">
         <v>3</v>
       </c>
-      <c r="O41" s="40">
+      <c r="P41" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q41" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A42" s="41" t="s">
         <v>21</v>
       </c>
@@ -20774,7 +21062,7 @@
       <c r="D42" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="71">
+      <c r="E42" s="43">
         <v>3</v>
       </c>
       <c r="F42" s="40">
@@ -20793,22 +21081,28 @@
         <v>3</v>
       </c>
       <c r="K42" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="40">
+        <v>1</v>
+      </c>
+      <c r="M42" s="40">
         <v>18</v>
       </c>
-      <c r="M42" s="40">
-        <v>0</v>
-      </c>
       <c r="N42" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="40">
+        <v>1</v>
+      </c>
+      <c r="P42" s="40">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q42" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A43" s="41" t="s">
         <v>21</v>
       </c>
@@ -20821,7 +21115,7 @@
       <c r="D43" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="71">
+      <c r="E43" s="43">
         <v>2</v>
       </c>
       <c r="F43" s="40">
@@ -20840,22 +21134,28 @@
         <v>1</v>
       </c>
       <c r="K43" s="40">
+        <v>0</v>
+      </c>
+      <c r="L43" s="40">
         <v>5</v>
       </c>
-      <c r="L43" s="40">
-        <v>1</v>
-      </c>
       <c r="M43" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" s="40">
+        <v>1</v>
+      </c>
+      <c r="P43" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q43" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A44" s="41" t="s">
         <v>21</v>
       </c>
@@ -20868,7 +21168,7 @@
       <c r="D44" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="71">
+      <c r="E44" s="43">
         <v>0</v>
       </c>
       <c r="F44" s="40">
@@ -20887,22 +21187,28 @@
         <v>0</v>
       </c>
       <c r="K44" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="40">
+        <v>1</v>
+      </c>
+      <c r="M44" s="40">
         <v>2</v>
       </c>
-      <c r="M44" s="40">
-        <v>0</v>
-      </c>
       <c r="N44" s="40">
+        <v>0</v>
+      </c>
+      <c r="O44" s="40">
         <v>2</v>
       </c>
-      <c r="O44" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P44" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A45" s="41" t="s">
         <v>21</v>
       </c>
@@ -20915,7 +21221,7 @@
       <c r="D45" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="71">
+      <c r="E45" s="43">
         <v>0</v>
       </c>
       <c r="F45" s="40">
@@ -20948,8 +21254,14 @@
       <c r="O45" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P45" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A46" s="41" t="s">
         <v>21</v>
       </c>
@@ -20962,7 +21274,7 @@
       <c r="D46" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="71">
+      <c r="E46" s="43">
         <v>10</v>
       </c>
       <c r="F46" s="40">
@@ -20981,22 +21293,28 @@
         <v>6</v>
       </c>
       <c r="K46" s="40">
+        <v>0</v>
+      </c>
+      <c r="L46" s="40">
         <v>4</v>
       </c>
-      <c r="L46" s="40">
+      <c r="M46" s="40">
         <v>6</v>
       </c>
-      <c r="M46" s="40">
-        <v>0</v>
-      </c>
       <c r="N46" s="40">
+        <v>0</v>
+      </c>
+      <c r="O46" s="40">
         <v>6</v>
       </c>
-      <c r="O46" s="40">
+      <c r="P46" s="40">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q46" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A47" s="41" t="s">
         <v>21</v>
       </c>
@@ -21009,7 +21327,7 @@
       <c r="D47" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="71">
+      <c r="E47" s="43">
         <v>0</v>
       </c>
       <c r="F47" s="40">
@@ -21028,22 +21346,28 @@
         <v>0</v>
       </c>
       <c r="K47" s="40">
+        <v>0</v>
+      </c>
+      <c r="L47" s="40">
         <v>3</v>
       </c>
-      <c r="L47" s="40">
-        <v>1</v>
-      </c>
       <c r="M47" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="P47" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A48" s="41" t="s">
         <v>21</v>
       </c>
@@ -21056,7 +21380,7 @@
       <c r="D48" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="71">
+      <c r="E48" s="43">
         <v>1</v>
       </c>
       <c r="F48" s="40">
@@ -21075,22 +21399,28 @@
         <v>2</v>
       </c>
       <c r="K48" s="40">
+        <v>0</v>
+      </c>
+      <c r="L48" s="40">
         <v>2</v>
       </c>
-      <c r="L48" s="40">
-        <v>1</v>
-      </c>
       <c r="M48" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" s="40">
+        <v>0</v>
+      </c>
+      <c r="O48" s="40">
         <v>2</v>
       </c>
-      <c r="O48" s="40">
+      <c r="P48" s="40">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q48" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A49" s="41" t="s">
         <v>21</v>
       </c>
@@ -21103,7 +21433,7 @@
       <c r="D49" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="71">
+      <c r="E49" s="43">
         <v>19</v>
       </c>
       <c r="F49" s="40">
@@ -21122,22 +21452,28 @@
         <v>10</v>
       </c>
       <c r="K49" s="40">
+        <v>0</v>
+      </c>
+      <c r="L49" s="40">
         <v>11</v>
       </c>
-      <c r="L49" s="40">
+      <c r="M49" s="40">
         <v>2</v>
       </c>
-      <c r="M49" s="40">
-        <v>0</v>
-      </c>
       <c r="N49" s="40">
+        <v>0</v>
+      </c>
+      <c r="O49" s="40">
         <v>5</v>
       </c>
-      <c r="O49" s="40">
+      <c r="P49" s="40">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q49" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A50" s="41" t="s">
         <v>21</v>
       </c>
@@ -21150,7 +21486,7 @@
       <c r="D50" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="71">
+      <c r="E50" s="43">
         <v>7</v>
       </c>
       <c r="F50" s="40">
@@ -21169,28 +21505,34 @@
         <v>3</v>
       </c>
       <c r="K50" s="40">
+        <v>0</v>
+      </c>
+      <c r="L50" s="40">
         <v>4</v>
       </c>
-      <c r="L50" s="40">
-        <v>1</v>
-      </c>
       <c r="M50" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="40">
+        <v>0</v>
+      </c>
+      <c r="O50" s="40">
         <v>5</v>
       </c>
-      <c r="O50" s="40">
+      <c r="P50" s="40">
         <v>2</v>
+      </c>
+      <c r="Q50" s="40">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="1.2374015748031499" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -21205,10 +21547,10 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="3" x14ac:dyDescent="0.35"/>
@@ -21221,15 +21563,15 @@
     <col min="6" max="6" width="13.453125" customWidth="1"/>
     <col min="7" max="7" width="13.54296875" customWidth="1"/>
     <col min="8" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" customWidth="1"/>
+    <col min="10" max="11" width="13.54296875" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" customWidth="1"/>
+    <col min="14" max="14" width="13.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" customWidth="1"/>
+    <col min="16" max="17" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="28" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>32</v>
       </c>
@@ -21242,7 +21584,7 @@
       <c r="D1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="42" t="s">
         <v>51</v>
       </c>
       <c r="F1" s="40" t="s">
@@ -21261,22 +21603,28 @@
         <v>17</v>
       </c>
       <c r="K1" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="N1" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="O1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="P1" s="40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q1" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
         <v>21</v>
       </c>
@@ -21289,7 +21637,7 @@
       <c r="D2" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="71">
+      <c r="E2" s="43">
         <v>0</v>
       </c>
       <c r="F2" s="40">
@@ -21322,8 +21670,14 @@
       <c r="O2" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P2" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>21</v>
       </c>
@@ -21336,7 +21690,7 @@
       <c r="D3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="43">
         <v>5</v>
       </c>
       <c r="F3" s="40">
@@ -21355,22 +21709,28 @@
         <v>4</v>
       </c>
       <c r="K3" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="40">
+        <v>1</v>
+      </c>
+      <c r="M3" s="40">
         <v>2</v>
       </c>
-      <c r="M3" s="40">
-        <v>0</v>
-      </c>
       <c r="N3" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P3" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>21</v>
       </c>
@@ -21383,7 +21743,7 @@
       <c r="D4" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="43">
         <v>6</v>
       </c>
       <c r="F4" s="40">
@@ -21402,22 +21762,28 @@
         <v>2</v>
       </c>
       <c r="K4" s="40">
+        <v>0</v>
+      </c>
+      <c r="L4" s="40">
         <v>4</v>
       </c>
-      <c r="L4" s="40">
-        <v>1</v>
-      </c>
       <c r="M4" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="40">
+        <v>0</v>
+      </c>
+      <c r="O4" s="40">
         <v>8</v>
       </c>
-      <c r="O4" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P4" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>21</v>
       </c>
@@ -21430,7 +21796,7 @@
       <c r="D5" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="43">
         <v>0</v>
       </c>
       <c r="F5" s="40">
@@ -21461,10 +21827,16 @@
         <v>0</v>
       </c>
       <c r="O5" s="40">
+        <v>0</v>
+      </c>
+      <c r="P5" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q5" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>21</v>
       </c>
@@ -21477,7 +21849,7 @@
       <c r="D6" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="43">
         <v>4</v>
       </c>
       <c r="F6" s="40">
@@ -21496,22 +21868,28 @@
         <v>0</v>
       </c>
       <c r="K6" s="40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6" s="40">
         <v>3</v>
       </c>
       <c r="M6" s="40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N6" s="40">
+        <v>0</v>
+      </c>
+      <c r="O6" s="40">
         <v>3</v>
       </c>
-      <c r="O6" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P6" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
         <v>21</v>
       </c>
@@ -21524,7 +21902,7 @@
       <c r="D7" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="43">
         <v>14</v>
       </c>
       <c r="F7" s="40">
@@ -21543,22 +21921,28 @@
         <v>8</v>
       </c>
       <c r="K7" s="40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L7" s="40">
         <v>10</v>
       </c>
       <c r="M7" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N7" s="40">
+        <v>0</v>
+      </c>
+      <c r="O7" s="40">
         <v>14</v>
       </c>
-      <c r="O7" s="40">
+      <c r="P7" s="40">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q7" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
         <v>21</v>
       </c>
@@ -21571,7 +21955,7 @@
       <c r="D8" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="43">
         <v>29</v>
       </c>
       <c r="F8" s="40">
@@ -21590,22 +21974,28 @@
         <v>6</v>
       </c>
       <c r="K8" s="40">
+        <v>0</v>
+      </c>
+      <c r="L8" s="40">
         <v>18</v>
       </c>
-      <c r="L8" s="40">
+      <c r="M8" s="40">
         <v>5</v>
       </c>
-      <c r="M8" s="40">
-        <v>0</v>
-      </c>
       <c r="N8" s="40">
+        <v>0</v>
+      </c>
+      <c r="O8" s="40">
         <v>12</v>
       </c>
-      <c r="O8" s="40">
+      <c r="P8" s="40">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q8" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>21</v>
       </c>
@@ -21618,7 +22008,7 @@
       <c r="D9" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="43">
         <v>3</v>
       </c>
       <c r="F9" s="40">
@@ -21637,22 +22027,28 @@
         <v>0</v>
       </c>
       <c r="K9" s="40">
+        <v>0</v>
+      </c>
+      <c r="L9" s="40">
         <v>4</v>
       </c>
-      <c r="L9" s="40">
-        <v>1</v>
-      </c>
       <c r="M9" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="40">
+        <v>0</v>
+      </c>
+      <c r="O9" s="40">
         <v>4</v>
       </c>
-      <c r="O9" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P9" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="41" t="s">
         <v>21</v>
       </c>
@@ -21665,7 +22061,7 @@
       <c r="D10" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="43">
         <v>10</v>
       </c>
       <c r="F10" s="40">
@@ -21684,22 +22080,28 @@
         <v>1</v>
       </c>
       <c r="K10" s="40">
+        <v>0</v>
+      </c>
+      <c r="L10" s="40">
         <v>7</v>
       </c>
-      <c r="L10" s="40">
+      <c r="M10" s="40">
         <v>3</v>
       </c>
-      <c r="M10" s="40">
-        <v>0</v>
-      </c>
       <c r="N10" s="40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O10" s="40">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P10" s="40">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="41" t="s">
         <v>21</v>
       </c>
@@ -21712,7 +22114,7 @@
       <c r="D11" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="43">
         <v>0</v>
       </c>
       <c r="F11" s="40">
@@ -21745,8 +22147,14 @@
       <c r="O11" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P11" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
         <v>21</v>
       </c>
@@ -21759,7 +22167,7 @@
       <c r="D12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="43">
         <v>4</v>
       </c>
       <c r="F12" s="40">
@@ -21778,22 +22186,28 @@
         <v>1</v>
       </c>
       <c r="K12" s="40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12" s="40">
         <v>2</v>
       </c>
       <c r="M12" s="40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" s="40">
+        <v>0</v>
+      </c>
+      <c r="O12" s="40">
         <v>3</v>
       </c>
-      <c r="O12" s="40">
+      <c r="P12" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q12" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
         <v>21</v>
       </c>
@@ -21806,7 +22220,7 @@
       <c r="D13" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="43">
         <v>10</v>
       </c>
       <c r="F13" s="40">
@@ -21825,22 +22239,28 @@
         <v>0</v>
       </c>
       <c r="K13" s="40">
+        <v>0</v>
+      </c>
+      <c r="L13" s="40">
         <v>6</v>
       </c>
-      <c r="L13" s="40">
-        <v>1</v>
-      </c>
       <c r="M13" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="40">
+        <v>0</v>
+      </c>
+      <c r="O13" s="40">
         <v>3</v>
       </c>
-      <c r="O13" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P13" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A14" s="41" t="s">
         <v>21</v>
       </c>
@@ -21853,7 +22273,7 @@
       <c r="D14" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="43">
         <v>12</v>
       </c>
       <c r="F14" s="40">
@@ -21872,22 +22292,28 @@
         <v>5</v>
       </c>
       <c r="K14" s="40">
+        <v>0</v>
+      </c>
+      <c r="L14" s="40">
         <v>8</v>
       </c>
-      <c r="L14" s="40">
+      <c r="M14" s="40">
         <v>3</v>
       </c>
-      <c r="M14" s="40">
-        <v>0</v>
-      </c>
       <c r="N14" s="40">
+        <v>0</v>
+      </c>
+      <c r="O14" s="40">
         <v>6</v>
       </c>
-      <c r="O14" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P14" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="41" t="s">
         <v>21</v>
       </c>
@@ -21900,7 +22326,7 @@
       <c r="D15" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="71">
+      <c r="E15" s="43">
         <v>3</v>
       </c>
       <c r="F15" s="40">
@@ -21919,22 +22345,28 @@
         <v>0</v>
       </c>
       <c r="K15" s="40">
+        <v>0</v>
+      </c>
+      <c r="L15" s="40">
         <v>2</v>
       </c>
-      <c r="L15" s="40">
-        <v>0</v>
-      </c>
       <c r="M15" s="40">
         <v>0</v>
       </c>
       <c r="N15" s="40">
+        <v>0</v>
+      </c>
+      <c r="O15" s="40">
         <v>2</v>
       </c>
-      <c r="O15" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P15" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A16" s="41" t="s">
         <v>21</v>
       </c>
@@ -21947,7 +22379,7 @@
       <c r="D16" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="43">
         <v>21</v>
       </c>
       <c r="F16" s="40">
@@ -21966,22 +22398,28 @@
         <v>0</v>
       </c>
       <c r="K16" s="40">
+        <v>0</v>
+      </c>
+      <c r="L16" s="40">
         <v>14</v>
       </c>
-      <c r="L16" s="40">
-        <v>0</v>
-      </c>
       <c r="M16" s="40">
         <v>0</v>
       </c>
       <c r="N16" s="40">
+        <v>0</v>
+      </c>
+      <c r="O16" s="40">
         <v>12</v>
       </c>
-      <c r="O16" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P16" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A17" s="41" t="s">
         <v>21</v>
       </c>
@@ -21994,7 +22432,7 @@
       <c r="D17" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="71">
+      <c r="E17" s="43">
         <v>42</v>
       </c>
       <c r="F17" s="40">
@@ -22013,22 +22451,28 @@
         <v>3</v>
       </c>
       <c r="K17" s="40">
+        <v>0</v>
+      </c>
+      <c r="L17" s="40">
         <v>43</v>
       </c>
-      <c r="L17" s="40">
+      <c r="M17" s="40">
         <v>5</v>
       </c>
-      <c r="M17" s="40">
-        <v>0</v>
-      </c>
       <c r="N17" s="40">
+        <v>0</v>
+      </c>
+      <c r="O17" s="40">
         <v>32</v>
       </c>
-      <c r="O17" s="40">
+      <c r="P17" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q17" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A18" s="41" t="s">
         <v>21</v>
       </c>
@@ -22041,7 +22485,7 @@
       <c r="D18" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="43">
         <v>0</v>
       </c>
       <c r="F18" s="40">
@@ -22069,13 +22513,19 @@
         <v>0</v>
       </c>
       <c r="N18" s="40">
+        <v>0</v>
+      </c>
+      <c r="O18" s="40">
         <v>5</v>
       </c>
-      <c r="O18" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P18" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="41" t="s">
         <v>21</v>
       </c>
@@ -22088,7 +22538,7 @@
       <c r="D19" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="43">
         <v>0</v>
       </c>
       <c r="F19" s="40">
@@ -22121,8 +22571,14 @@
       <c r="O19" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P19" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="41" t="s">
         <v>21</v>
       </c>
@@ -22135,7 +22591,7 @@
       <c r="D20" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="43">
         <v>1</v>
       </c>
       <c r="F20" s="40">
@@ -22154,10 +22610,10 @@
         <v>1</v>
       </c>
       <c r="K20" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="40">
         <v>0</v>
@@ -22168,8 +22624,14 @@
       <c r="O20" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P20" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A21" s="41" t="s">
         <v>21</v>
       </c>
@@ -22182,7 +22644,7 @@
       <c r="D21" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="71">
+      <c r="E21" s="43">
         <v>12</v>
       </c>
       <c r="F21" s="40">
@@ -22201,22 +22663,28 @@
         <v>8</v>
       </c>
       <c r="K21" s="40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L21" s="40">
         <v>4</v>
       </c>
       <c r="M21" s="40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N21" s="40">
+        <v>0</v>
+      </c>
+      <c r="O21" s="40">
         <v>7</v>
       </c>
-      <c r="O21" s="40">
+      <c r="P21" s="40">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q21" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="41" t="s">
         <v>21</v>
       </c>
@@ -22229,7 +22697,7 @@
       <c r="D22" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="43">
         <v>21</v>
       </c>
       <c r="F22" s="40">
@@ -22248,22 +22716,28 @@
         <v>7</v>
       </c>
       <c r="K22" s="40">
+        <v>0</v>
+      </c>
+      <c r="L22" s="40">
         <v>13</v>
       </c>
-      <c r="L22" s="40">
-        <v>1</v>
-      </c>
       <c r="M22" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="40">
+        <v>0</v>
+      </c>
+      <c r="O22" s="40">
         <v>19</v>
       </c>
-      <c r="O22" s="40">
+      <c r="P22" s="40">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q22" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="41" t="s">
         <v>21</v>
       </c>
@@ -22276,7 +22750,7 @@
       <c r="D23" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="71">
+      <c r="E23" s="43">
         <v>0</v>
       </c>
       <c r="F23" s="40">
@@ -22309,8 +22783,14 @@
       <c r="O23" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P23" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="41" t="s">
         <v>21</v>
       </c>
@@ -22323,7 +22803,7 @@
       <c r="D24" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="71">
+      <c r="E24" s="43">
         <v>0</v>
       </c>
       <c r="F24" s="40">
@@ -22342,22 +22822,28 @@
         <v>0</v>
       </c>
       <c r="K24" s="40">
+        <v>0</v>
+      </c>
+      <c r="L24" s="40">
         <v>2</v>
       </c>
-      <c r="L24" s="40">
-        <v>0</v>
-      </c>
       <c r="M24" s="40">
         <v>0</v>
       </c>
       <c r="N24" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P24" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="41" t="s">
         <v>21</v>
       </c>
@@ -22370,7 +22856,7 @@
       <c r="D25" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="71">
+      <c r="E25" s="43">
         <v>33</v>
       </c>
       <c r="F25" s="40">
@@ -22389,22 +22875,28 @@
         <v>0</v>
       </c>
       <c r="K25" s="40">
+        <v>0</v>
+      </c>
+      <c r="L25" s="40">
         <v>22</v>
       </c>
-      <c r="L25" s="40">
-        <v>0</v>
-      </c>
       <c r="M25" s="40">
         <v>0</v>
       </c>
       <c r="N25" s="40">
+        <v>0</v>
+      </c>
+      <c r="O25" s="40">
         <v>13</v>
       </c>
-      <c r="O25" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P25" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="41" t="s">
         <v>21</v>
       </c>
@@ -22417,7 +22909,7 @@
       <c r="D26" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="71">
+      <c r="E26" s="43">
         <v>4</v>
       </c>
       <c r="F26" s="40">
@@ -22448,10 +22940,16 @@
         <v>0</v>
       </c>
       <c r="O26" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="P26" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="41" t="s">
         <v>21</v>
       </c>
@@ -22464,7 +22962,7 @@
       <c r="D27" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="71">
+      <c r="E27" s="43">
         <v>3</v>
       </c>
       <c r="F27" s="40">
@@ -22486,19 +22984,25 @@
         <v>0</v>
       </c>
       <c r="L27" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="40">
         <v>0</v>
       </c>
       <c r="O27" s="40">
+        <v>0</v>
+      </c>
+      <c r="P27" s="40">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q27" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="41" t="s">
         <v>21</v>
       </c>
@@ -22511,7 +23015,7 @@
       <c r="D28" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="71">
+      <c r="E28" s="43">
         <v>70</v>
       </c>
       <c r="F28" s="40">
@@ -22530,22 +23034,28 @@
         <v>62</v>
       </c>
       <c r="K28" s="40">
+        <v>0</v>
+      </c>
+      <c r="L28" s="40">
         <v>6</v>
       </c>
-      <c r="L28" s="40">
+      <c r="M28" s="40">
         <v>4</v>
       </c>
-      <c r="M28" s="40">
-        <v>0</v>
-      </c>
       <c r="N28" s="40">
+        <v>0</v>
+      </c>
+      <c r="O28" s="40">
         <v>6</v>
       </c>
-      <c r="O28" s="40">
+      <c r="P28" s="40">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q28" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="41" t="s">
         <v>21</v>
       </c>
@@ -22558,7 +23068,7 @@
       <c r="D29" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="71">
+      <c r="E29" s="43">
         <v>15</v>
       </c>
       <c r="F29" s="40">
@@ -22577,22 +23087,28 @@
         <v>0</v>
       </c>
       <c r="K29" s="40">
+        <v>0</v>
+      </c>
+      <c r="L29" s="40">
         <v>17</v>
       </c>
-      <c r="L29" s="40">
-        <v>1</v>
-      </c>
       <c r="M29" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="40">
+        <v>0</v>
+      </c>
+      <c r="O29" s="40">
         <v>17</v>
       </c>
-      <c r="O29" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P29" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="41" t="s">
         <v>21</v>
       </c>
@@ -22605,7 +23121,7 @@
       <c r="D30" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="71">
+      <c r="E30" s="43">
         <v>7</v>
       </c>
       <c r="F30" s="40">
@@ -22624,22 +23140,28 @@
         <v>4</v>
       </c>
       <c r="K30" s="40">
+        <v>0</v>
+      </c>
+      <c r="L30" s="40">
         <v>5</v>
       </c>
-      <c r="L30" s="40">
-        <v>1</v>
-      </c>
       <c r="M30" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="40">
+        <v>0</v>
+      </c>
+      <c r="O30" s="40">
         <v>7</v>
       </c>
-      <c r="O30" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P30" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="41" t="s">
         <v>21</v>
       </c>
@@ -22652,7 +23174,7 @@
       <c r="D31" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="71">
+      <c r="E31" s="43">
         <v>922</v>
       </c>
       <c r="F31" s="40">
@@ -22671,22 +23193,28 @@
         <v>134</v>
       </c>
       <c r="K31" s="40">
+        <v>0</v>
+      </c>
+      <c r="L31" s="40">
         <v>982</v>
       </c>
-      <c r="L31" s="40">
+      <c r="M31" s="40">
         <v>147</v>
       </c>
-      <c r="M31" s="40">
+      <c r="N31" s="40">
         <v>15</v>
       </c>
-      <c r="N31" s="40">
+      <c r="O31" s="40">
         <v>765</v>
       </c>
-      <c r="O31" s="40">
+      <c r="P31" s="40">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q31" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A32" s="41" t="s">
         <v>21</v>
       </c>
@@ -22699,7 +23227,7 @@
       <c r="D32" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="71">
+      <c r="E32" s="43">
         <v>1</v>
       </c>
       <c r="F32" s="40">
@@ -22718,10 +23246,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="40">
         <v>0</v>
@@ -22732,8 +23260,14 @@
       <c r="O32" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P32" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A33" s="41" t="s">
         <v>21</v>
       </c>
@@ -22746,7 +23280,7 @@
       <c r="D33" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="71">
+      <c r="E33" s="43">
         <v>5</v>
       </c>
       <c r="F33" s="40">
@@ -22777,10 +23311,16 @@
         <v>0</v>
       </c>
       <c r="O33" s="40">
+        <v>0</v>
+      </c>
+      <c r="P33" s="40">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q33" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="41" t="s">
         <v>21</v>
       </c>
@@ -22793,7 +23333,7 @@
       <c r="D34" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="71">
+      <c r="E34" s="43">
         <v>50</v>
       </c>
       <c r="F34" s="40">
@@ -22812,22 +23352,28 @@
         <v>26</v>
       </c>
       <c r="K34" s="40">
+        <v>0</v>
+      </c>
+      <c r="L34" s="40">
         <v>39</v>
       </c>
-      <c r="L34" s="40">
+      <c r="M34" s="40">
         <v>16</v>
       </c>
-      <c r="M34" s="40">
-        <v>0</v>
-      </c>
       <c r="N34" s="40">
+        <v>0</v>
+      </c>
+      <c r="O34" s="40">
         <v>37</v>
       </c>
-      <c r="O34" s="40">
+      <c r="P34" s="40">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q34" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="41" t="s">
         <v>21</v>
       </c>
@@ -22840,7 +23386,7 @@
       <c r="D35" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="71">
+      <c r="E35" s="43">
         <v>0</v>
       </c>
       <c r="F35" s="40">
@@ -22873,8 +23419,14 @@
       <c r="O35" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P35" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="41" t="s">
         <v>21</v>
       </c>
@@ -22887,7 +23439,7 @@
       <c r="D36" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="71">
+      <c r="E36" s="43">
         <v>32</v>
       </c>
       <c r="F36" s="40">
@@ -22906,22 +23458,28 @@
         <v>8</v>
       </c>
       <c r="K36" s="40">
+        <v>0</v>
+      </c>
+      <c r="L36" s="40">
         <v>26</v>
       </c>
-      <c r="L36" s="40">
+      <c r="M36" s="40">
         <v>5</v>
       </c>
-      <c r="M36" s="40">
-        <v>0</v>
-      </c>
       <c r="N36" s="40">
+        <v>0</v>
+      </c>
+      <c r="O36" s="40">
         <v>16</v>
       </c>
-      <c r="O36" s="40">
+      <c r="P36" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q36" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="41" t="s">
         <v>21</v>
       </c>
@@ -22934,7 +23492,7 @@
       <c r="D37" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="71">
+      <c r="E37" s="43">
         <v>1</v>
       </c>
       <c r="F37" s="40">
@@ -22953,22 +23511,28 @@
         <v>0</v>
       </c>
       <c r="K37" s="40">
+        <v>0</v>
+      </c>
+      <c r="L37" s="40">
         <v>5</v>
       </c>
-      <c r="L37" s="40">
-        <v>0</v>
-      </c>
       <c r="M37" s="40">
         <v>0</v>
       </c>
       <c r="N37" s="40">
+        <v>0</v>
+      </c>
+      <c r="O37" s="40">
         <v>3</v>
       </c>
-      <c r="O37" s="40">
+      <c r="P37" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q37" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A38" s="41" t="s">
         <v>21</v>
       </c>
@@ -22981,7 +23545,7 @@
       <c r="D38" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="71">
+      <c r="E38" s="43">
         <v>3</v>
       </c>
       <c r="F38" s="40">
@@ -23000,22 +23564,28 @@
         <v>1</v>
       </c>
       <c r="K38" s="40">
+        <v>0</v>
+      </c>
+      <c r="L38" s="40">
         <v>3</v>
       </c>
-      <c r="L38" s="40">
-        <v>1</v>
-      </c>
       <c r="M38" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" s="40">
+        <v>0</v>
+      </c>
+      <c r="O38" s="40">
         <v>4</v>
       </c>
-      <c r="O38" s="40">
+      <c r="P38" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q38" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A39" s="41" t="s">
         <v>21</v>
       </c>
@@ -23028,7 +23598,7 @@
       <c r="D39" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="71">
+      <c r="E39" s="43">
         <v>19</v>
       </c>
       <c r="F39" s="40">
@@ -23047,22 +23617,28 @@
         <v>4</v>
       </c>
       <c r="K39" s="40">
+        <v>0</v>
+      </c>
+      <c r="L39" s="40">
         <v>15</v>
       </c>
-      <c r="L39" s="40">
+      <c r="M39" s="40">
         <v>3</v>
       </c>
-      <c r="M39" s="40">
-        <v>0</v>
-      </c>
       <c r="N39" s="40">
+        <v>0</v>
+      </c>
+      <c r="O39" s="40">
         <v>41</v>
       </c>
-      <c r="O39" s="40">
+      <c r="P39" s="40">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q39" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A40" s="41" t="s">
         <v>21</v>
       </c>
@@ -23075,7 +23651,7 @@
       <c r="D40" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="71">
+      <c r="E40" s="43">
         <v>4</v>
       </c>
       <c r="F40" s="40">
@@ -23094,22 +23670,28 @@
         <v>4</v>
       </c>
       <c r="K40" s="40">
+        <v>0</v>
+      </c>
+      <c r="L40" s="40">
         <v>4</v>
       </c>
-      <c r="L40" s="40">
-        <v>0</v>
-      </c>
       <c r="M40" s="40">
         <v>0</v>
       </c>
       <c r="N40" s="40">
+        <v>0</v>
+      </c>
+      <c r="O40" s="40">
         <v>3</v>
       </c>
-      <c r="O40" s="40">
+      <c r="P40" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q40" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A41" s="41" t="s">
         <v>21</v>
       </c>
@@ -23122,7 +23704,7 @@
       <c r="D41" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="71">
+      <c r="E41" s="43">
         <v>3</v>
       </c>
       <c r="F41" s="40">
@@ -23141,22 +23723,28 @@
         <v>3</v>
       </c>
       <c r="K41" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="40">
+        <v>1</v>
+      </c>
+      <c r="M41" s="40">
         <v>18</v>
       </c>
-      <c r="M41" s="40">
-        <v>0</v>
-      </c>
       <c r="N41" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="40">
+        <v>1</v>
+      </c>
+      <c r="P41" s="40">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q41" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A42" s="41" t="s">
         <v>21</v>
       </c>
@@ -23169,7 +23757,7 @@
       <c r="D42" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="71">
+      <c r="E42" s="43">
         <v>2</v>
       </c>
       <c r="F42" s="40">
@@ -23188,22 +23776,28 @@
         <v>1</v>
       </c>
       <c r="K42" s="40">
+        <v>0</v>
+      </c>
+      <c r="L42" s="40">
         <v>5</v>
       </c>
-      <c r="L42" s="40">
-        <v>1</v>
-      </c>
       <c r="M42" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="40">
+        <v>1</v>
+      </c>
+      <c r="P42" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q42" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A43" s="41" t="s">
         <v>21</v>
       </c>
@@ -23216,7 +23810,7 @@
       <c r="D43" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="71">
+      <c r="E43" s="43">
         <v>0</v>
       </c>
       <c r="F43" s="40">
@@ -23235,22 +23829,28 @@
         <v>0</v>
       </c>
       <c r="K43" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="40">
+        <v>1</v>
+      </c>
+      <c r="M43" s="40">
         <v>2</v>
       </c>
-      <c r="M43" s="40">
-        <v>0</v>
-      </c>
       <c r="N43" s="40">
+        <v>0</v>
+      </c>
+      <c r="O43" s="40">
         <v>2</v>
       </c>
-      <c r="O43" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P43" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A44" s="41" t="s">
         <v>21</v>
       </c>
@@ -23263,7 +23863,7 @@
       <c r="D44" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="71">
+      <c r="E44" s="43">
         <v>0</v>
       </c>
       <c r="F44" s="40">
@@ -23296,8 +23896,14 @@
       <c r="O44" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="P44" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A45" s="41" t="s">
         <v>21</v>
       </c>
@@ -23310,7 +23916,7 @@
       <c r="D45" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="71">
+      <c r="E45" s="43">
         <v>10</v>
       </c>
       <c r="F45" s="40">
@@ -23329,22 +23935,28 @@
         <v>6</v>
       </c>
       <c r="K45" s="40">
+        <v>0</v>
+      </c>
+      <c r="L45" s="40">
         <v>4</v>
       </c>
-      <c r="L45" s="40">
+      <c r="M45" s="40">
         <v>6</v>
       </c>
-      <c r="M45" s="40">
-        <v>0</v>
-      </c>
       <c r="N45" s="40">
+        <v>0</v>
+      </c>
+      <c r="O45" s="40">
         <v>6</v>
       </c>
-      <c r="O45" s="40">
+      <c r="P45" s="40">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q45" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A46" s="41" t="s">
         <v>21</v>
       </c>
@@ -23357,7 +23969,7 @@
       <c r="D46" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="71">
+      <c r="E46" s="43">
         <v>0</v>
       </c>
       <c r="F46" s="40">
@@ -23376,22 +23988,28 @@
         <v>0</v>
       </c>
       <c r="K46" s="40">
+        <v>0</v>
+      </c>
+      <c r="L46" s="40">
         <v>3</v>
       </c>
-      <c r="L46" s="40">
-        <v>1</v>
-      </c>
       <c r="M46" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="P46" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A47" s="41" t="s">
         <v>21</v>
       </c>
@@ -23404,7 +24022,7 @@
       <c r="D47" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="71">
+      <c r="E47" s="43">
         <v>1</v>
       </c>
       <c r="F47" s="40">
@@ -23423,22 +24041,28 @@
         <v>2</v>
       </c>
       <c r="K47" s="40">
+        <v>0</v>
+      </c>
+      <c r="L47" s="40">
         <v>2</v>
       </c>
-      <c r="L47" s="40">
-        <v>1</v>
-      </c>
       <c r="M47" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="40">
+        <v>0</v>
+      </c>
+      <c r="O47" s="40">
         <v>2</v>
       </c>
-      <c r="O47" s="40">
+      <c r="P47" s="40">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q47" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A48" s="41" t="s">
         <v>21</v>
       </c>
@@ -23451,7 +24075,7 @@
       <c r="D48" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="71">
+      <c r="E48" s="43">
         <v>19</v>
       </c>
       <c r="F48" s="40">
@@ -23470,22 +24094,28 @@
         <v>10</v>
       </c>
       <c r="K48" s="40">
+        <v>0</v>
+      </c>
+      <c r="L48" s="40">
         <v>11</v>
       </c>
-      <c r="L48" s="40">
+      <c r="M48" s="40">
         <v>2</v>
       </c>
-      <c r="M48" s="40">
-        <v>0</v>
-      </c>
       <c r="N48" s="40">
+        <v>0</v>
+      </c>
+      <c r="O48" s="40">
         <v>5</v>
       </c>
-      <c r="O48" s="40">
+      <c r="P48" s="40">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q48" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A49" s="41" t="s">
         <v>21</v>
       </c>
@@ -23498,7 +24128,7 @@
       <c r="D49" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="71">
+      <c r="E49" s="43">
         <v>7</v>
       </c>
       <c r="F49" s="40">
@@ -23517,19 +24147,25 @@
         <v>3</v>
       </c>
       <c r="K49" s="40">
+        <v>0</v>
+      </c>
+      <c r="L49" s="40">
         <v>4</v>
       </c>
-      <c r="L49" s="40">
-        <v>1</v>
-      </c>
       <c r="M49" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" s="40">
+        <v>0</v>
+      </c>
+      <c r="O49" s="40">
         <v>5</v>
       </c>
-      <c r="O49" s="40">
+      <c r="P49" s="40">
         <v>2</v>
+      </c>
+      <c r="Q49" s="40">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -23570,31 +24206,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="69" t="s">
+      <c r="A1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="69" t="s">
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="69" t="s">
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="69" t="s">
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
     </row>
     <row r="2" spans="1:17" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="39" t="s">
@@ -23609,7 +24245,7 @@
       <c r="D2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="42" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="40" t="s">
@@ -23662,7 +24298,7 @@
       <c r="D3" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="43">
         <v>0</v>
       </c>
       <c r="F3" s="40">
@@ -23715,7 +24351,7 @@
       <c r="D4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="43">
         <v>5</v>
       </c>
       <c r="F4" s="40">
@@ -23768,7 +24404,7 @@
       <c r="D5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="43">
         <v>6</v>
       </c>
       <c r="F5" s="40">
@@ -23821,7 +24457,7 @@
       <c r="D6" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="43">
         <v>0</v>
       </c>
       <c r="F6" s="40">
@@ -23874,7 +24510,7 @@
       <c r="D7" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="43">
         <v>4</v>
       </c>
       <c r="F7" s="40">
@@ -23927,7 +24563,7 @@
       <c r="D8" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="43">
         <v>14</v>
       </c>
       <c r="F8" s="40">
@@ -23980,7 +24616,7 @@
       <c r="D9" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="43">
         <v>29</v>
       </c>
       <c r="F9" s="40">
@@ -24033,7 +24669,7 @@
       <c r="D10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="43">
         <v>3</v>
       </c>
       <c r="F10" s="40">
@@ -24086,7 +24722,7 @@
       <c r="D11" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="43">
         <v>10</v>
       </c>
       <c r="F11" s="40">
@@ -24139,7 +24775,7 @@
       <c r="D12" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="43">
         <v>0</v>
       </c>
       <c r="F12" s="40">
@@ -24192,7 +24828,7 @@
       <c r="D13" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="43">
         <v>4</v>
       </c>
       <c r="F13" s="40">
@@ -24245,7 +24881,7 @@
       <c r="D14" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="43">
         <v>10</v>
       </c>
       <c r="F14" s="40">
@@ -24285,7 +24921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="41" t="s">
         <v>21</v>
       </c>
@@ -24298,7 +24934,7 @@
       <c r="D15" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="71">
+      <c r="E15" s="43">
         <v>12</v>
       </c>
       <c r="F15" s="40">
@@ -24351,7 +24987,7 @@
       <c r="D16" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="43">
         <v>3</v>
       </c>
       <c r="F16" s="40">
@@ -24404,7 +25040,7 @@
       <c r="D17" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="71">
+      <c r="E17" s="43">
         <v>21</v>
       </c>
       <c r="F17" s="40">
@@ -24457,7 +25093,7 @@
       <c r="D18" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="43">
         <v>42</v>
       </c>
       <c r="F18" s="40">
@@ -24510,7 +25146,7 @@
       <c r="D19" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="43">
         <v>0</v>
       </c>
       <c r="F19" s="40">
@@ -24563,7 +25199,7 @@
       <c r="D20" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="43">
         <v>0</v>
       </c>
       <c r="F20" s="40">
@@ -24616,7 +25252,7 @@
       <c r="D21" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="71">
+      <c r="E21" s="43">
         <v>1</v>
       </c>
       <c r="F21" s="40">
@@ -24669,7 +25305,7 @@
       <c r="D22" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="43">
         <v>12</v>
       </c>
       <c r="F22" s="40">
@@ -24722,7 +25358,7 @@
       <c r="D23" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="71">
+      <c r="E23" s="43">
         <v>21</v>
       </c>
       <c r="F23" s="40">
@@ -24775,7 +25411,7 @@
       <c r="D24" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="71">
+      <c r="E24" s="43">
         <v>0</v>
       </c>
       <c r="F24" s="40">
@@ -24828,7 +25464,7 @@
       <c r="D25" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="71">
+      <c r="E25" s="43">
         <v>0</v>
       </c>
       <c r="F25" s="40">
@@ -24881,7 +25517,7 @@
       <c r="D26" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="71">
+      <c r="E26" s="43">
         <v>33</v>
       </c>
       <c r="F26" s="40">
@@ -24934,7 +25570,7 @@
       <c r="D27" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="71">
+      <c r="E27" s="43">
         <v>4</v>
       </c>
       <c r="F27" s="40">
@@ -24987,7 +25623,7 @@
       <c r="D28" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="71">
+      <c r="E28" s="43">
         <v>3</v>
       </c>
       <c r="F28" s="40">
@@ -25040,7 +25676,7 @@
       <c r="D29" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="71">
+      <c r="E29" s="43">
         <v>70</v>
       </c>
       <c r="F29" s="40">
@@ -25093,7 +25729,7 @@
       <c r="D30" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="71">
+      <c r="E30" s="43">
         <v>15</v>
       </c>
       <c r="F30" s="40">
@@ -25146,7 +25782,7 @@
       <c r="D31" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="71">
+      <c r="E31" s="43">
         <v>7</v>
       </c>
       <c r="F31" s="40">
@@ -25199,7 +25835,7 @@
       <c r="D32" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="71">
+      <c r="E32" s="43">
         <v>922</v>
       </c>
       <c r="F32" s="40">
@@ -25252,7 +25888,7 @@
       <c r="D33" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="71">
+      <c r="E33" s="43">
         <v>1</v>
       </c>
       <c r="F33" s="40">
@@ -25305,7 +25941,7 @@
       <c r="D34" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="71">
+      <c r="E34" s="43">
         <v>5</v>
       </c>
       <c r="F34" s="40">
@@ -25358,7 +25994,7 @@
       <c r="D35" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="71">
+      <c r="E35" s="43">
         <v>50</v>
       </c>
       <c r="F35" s="40">
@@ -25411,7 +26047,7 @@
       <c r="D36" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="71">
+      <c r="E36" s="43">
         <v>0</v>
       </c>
       <c r="F36" s="40">
@@ -25464,7 +26100,7 @@
       <c r="D37" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="71">
+      <c r="E37" s="43">
         <v>32</v>
       </c>
       <c r="F37" s="40">
@@ -25517,7 +26153,7 @@
       <c r="D38" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="71">
+      <c r="E38" s="43">
         <v>1</v>
       </c>
       <c r="F38" s="40">
@@ -25570,7 +26206,7 @@
       <c r="D39" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="71">
+      <c r="E39" s="43">
         <v>3</v>
       </c>
       <c r="F39" s="40">
@@ -25623,7 +26259,7 @@
       <c r="D40" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="71">
+      <c r="E40" s="43">
         <v>19</v>
       </c>
       <c r="F40" s="40">
@@ -25676,7 +26312,7 @@
       <c r="D41" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="71">
+      <c r="E41" s="43">
         <v>4</v>
       </c>
       <c r="F41" s="40">
@@ -25729,7 +26365,7 @@
       <c r="D42" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="71">
+      <c r="E42" s="43">
         <v>3</v>
       </c>
       <c r="F42" s="40">
@@ -25782,7 +26418,7 @@
       <c r="D43" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="71">
+      <c r="E43" s="43">
         <v>2</v>
       </c>
       <c r="F43" s="40">
@@ -25835,7 +26471,7 @@
       <c r="D44" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="71">
+      <c r="E44" s="43">
         <v>0</v>
       </c>
       <c r="F44" s="40">
@@ -25888,7 +26524,7 @@
       <c r="D45" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="71">
+      <c r="E45" s="43">
         <v>0</v>
       </c>
       <c r="F45" s="40">
@@ -25941,7 +26577,7 @@
       <c r="D46" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="71">
+      <c r="E46" s="43">
         <v>10</v>
       </c>
       <c r="F46" s="40">
@@ -25994,7 +26630,7 @@
       <c r="D47" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="71">
+      <c r="E47" s="43">
         <v>0</v>
       </c>
       <c r="F47" s="40">
@@ -26047,7 +26683,7 @@
       <c r="D48" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="71">
+      <c r="E48" s="43">
         <v>1</v>
       </c>
       <c r="F48" s="40">
@@ -26100,7 +26736,7 @@
       <c r="D49" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="71">
+      <c r="E49" s="43">
         <v>19</v>
       </c>
       <c r="F49" s="40">
@@ -26153,7 +26789,7 @@
       <c r="D50" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="71">
+      <c r="E50" s="43">
         <v>7</v>
       </c>
       <c r="F50" s="40">
@@ -26217,7 +26853,7 @@
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="3" x14ac:dyDescent="0.35"/>
@@ -26250,7 +26886,7 @@
       <c r="D1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="42" t="s">
         <v>51</v>
       </c>
       <c r="F1" s="40" t="s">
@@ -26303,7 +26939,7 @@
       <c r="D2" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="71">
+      <c r="E2" s="43">
         <v>0</v>
       </c>
       <c r="F2" s="40">
@@ -26356,7 +26992,7 @@
       <c r="D3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="43">
         <v>5</v>
       </c>
       <c r="F3" s="40">
@@ -26409,7 +27045,7 @@
       <c r="D4" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="43">
         <v>6</v>
       </c>
       <c r="F4" s="40">
@@ -26462,7 +27098,7 @@
       <c r="D5" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="43">
         <v>0</v>
       </c>
       <c r="F5" s="40">
@@ -26515,7 +27151,7 @@
       <c r="D6" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="43">
         <v>4</v>
       </c>
       <c r="F6" s="40">
@@ -26568,7 +27204,7 @@
       <c r="D7" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="43">
         <v>14</v>
       </c>
       <c r="F7" s="40">
@@ -26621,7 +27257,7 @@
       <c r="D8" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="43">
         <v>29</v>
       </c>
       <c r="F8" s="40">
@@ -26674,7 +27310,7 @@
       <c r="D9" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="43">
         <v>3</v>
       </c>
       <c r="F9" s="40">
@@ -26727,7 +27363,7 @@
       <c r="D10" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="43">
         <v>10</v>
       </c>
       <c r="F10" s="40">
@@ -26780,7 +27416,7 @@
       <c r="D11" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="43">
         <v>0</v>
       </c>
       <c r="F11" s="40">
@@ -26833,7 +27469,7 @@
       <c r="D12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="43">
         <v>4</v>
       </c>
       <c r="F12" s="40">
@@ -26886,7 +27522,7 @@
       <c r="D13" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="43">
         <v>10</v>
       </c>
       <c r="F13" s="40">
@@ -26939,7 +27575,7 @@
       <c r="D14" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="43">
         <v>12</v>
       </c>
       <c r="F14" s="40">
@@ -26992,7 +27628,7 @@
       <c r="D15" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="71">
+      <c r="E15" s="43">
         <v>3</v>
       </c>
       <c r="F15" s="40">
@@ -27045,7 +27681,7 @@
       <c r="D16" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="43">
         <v>21</v>
       </c>
       <c r="F16" s="40">
@@ -27098,7 +27734,7 @@
       <c r="D17" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="71">
+      <c r="E17" s="43">
         <v>42</v>
       </c>
       <c r="F17" s="40">
@@ -27151,7 +27787,7 @@
       <c r="D18" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="43">
         <v>0</v>
       </c>
       <c r="F18" s="40">
@@ -27204,7 +27840,7 @@
       <c r="D19" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="43">
         <v>0</v>
       </c>
       <c r="F19" s="40">
@@ -27257,7 +27893,7 @@
       <c r="D20" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="43">
         <v>1</v>
       </c>
       <c r="F20" s="40">
@@ -27310,7 +27946,7 @@
       <c r="D21" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="71">
+      <c r="E21" s="43">
         <v>12</v>
       </c>
       <c r="F21" s="40">
@@ -27363,7 +27999,7 @@
       <c r="D22" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="43">
         <v>21</v>
       </c>
       <c r="F22" s="40">
@@ -27416,7 +28052,7 @@
       <c r="D23" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="71">
+      <c r="E23" s="43">
         <v>0</v>
       </c>
       <c r="F23" s="40">
@@ -27469,7 +28105,7 @@
       <c r="D24" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="71">
+      <c r="E24" s="43">
         <v>0</v>
       </c>
       <c r="F24" s="40">
@@ -27522,7 +28158,7 @@
       <c r="D25" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="71">
+      <c r="E25" s="43">
         <v>33</v>
       </c>
       <c r="F25" s="40">
@@ -27575,7 +28211,7 @@
       <c r="D26" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="71">
+      <c r="E26" s="43">
         <v>4</v>
       </c>
       <c r="F26" s="40">
@@ -27628,7 +28264,7 @@
       <c r="D27" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="71">
+      <c r="E27" s="43">
         <v>3</v>
       </c>
       <c r="F27" s="40">
@@ -27681,7 +28317,7 @@
       <c r="D28" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="71">
+      <c r="E28" s="43">
         <v>70</v>
       </c>
       <c r="F28" s="40">
@@ -27734,7 +28370,7 @@
       <c r="D29" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="71">
+      <c r="E29" s="43">
         <v>15</v>
       </c>
       <c r="F29" s="40">
@@ -27787,7 +28423,7 @@
       <c r="D30" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="71">
+      <c r="E30" s="43">
         <v>7</v>
       </c>
       <c r="F30" s="40">
@@ -27840,7 +28476,7 @@
       <c r="D31" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="71">
+      <c r="E31" s="43">
         <v>922</v>
       </c>
       <c r="F31" s="40">
@@ -27893,7 +28529,7 @@
       <c r="D32" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="71">
+      <c r="E32" s="43">
         <v>1</v>
       </c>
       <c r="F32" s="40">
@@ -27946,7 +28582,7 @@
       <c r="D33" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="71">
+      <c r="E33" s="43">
         <v>5</v>
       </c>
       <c r="F33" s="40">
@@ -27999,7 +28635,7 @@
       <c r="D34" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="71">
+      <c r="E34" s="43">
         <v>50</v>
       </c>
       <c r="F34" s="40">
@@ -28052,7 +28688,7 @@
       <c r="D35" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="71">
+      <c r="E35" s="43">
         <v>0</v>
       </c>
       <c r="F35" s="40">
@@ -28105,7 +28741,7 @@
       <c r="D36" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="71">
+      <c r="E36" s="43">
         <v>32</v>
       </c>
       <c r="F36" s="40">
@@ -28158,7 +28794,7 @@
       <c r="D37" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="71">
+      <c r="E37" s="43">
         <v>1</v>
       </c>
       <c r="F37" s="40">
@@ -28211,7 +28847,7 @@
       <c r="D38" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="71">
+      <c r="E38" s="43">
         <v>3</v>
       </c>
       <c r="F38" s="40">
@@ -28264,7 +28900,7 @@
       <c r="D39" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="71">
+      <c r="E39" s="43">
         <v>19</v>
       </c>
       <c r="F39" s="40">
@@ -28317,7 +28953,7 @@
       <c r="D40" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="71">
+      <c r="E40" s="43">
         <v>4</v>
       </c>
       <c r="F40" s="40">
@@ -28370,7 +29006,7 @@
       <c r="D41" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="71">
+      <c r="E41" s="43">
         <v>3</v>
       </c>
       <c r="F41" s="40">
@@ -28423,7 +29059,7 @@
       <c r="D42" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="71">
+      <c r="E42" s="43">
         <v>2</v>
       </c>
       <c r="F42" s="40">
@@ -28476,7 +29112,7 @@
       <c r="D43" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="71">
+      <c r="E43" s="43">
         <v>0</v>
       </c>
       <c r="F43" s="40">
@@ -28529,7 +29165,7 @@
       <c r="D44" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="71">
+      <c r="E44" s="43">
         <v>0</v>
       </c>
       <c r="F44" s="40">
@@ -28582,7 +29218,7 @@
       <c r="D45" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="71">
+      <c r="E45" s="43">
         <v>10</v>
       </c>
       <c r="F45" s="40">
@@ -28635,7 +29271,7 @@
       <c r="D46" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="71">
+      <c r="E46" s="43">
         <v>0</v>
       </c>
       <c r="F46" s="40">
@@ -28688,7 +29324,7 @@
       <c r="D47" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="71">
+      <c r="E47" s="43">
         <v>1</v>
       </c>
       <c r="F47" s="40">
@@ -28741,7 +29377,7 @@
       <c r="D48" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="71">
+      <c r="E48" s="43">
         <v>19</v>
       </c>
       <c r="F48" s="40">
@@ -28794,7 +29430,7 @@
       <c r="D49" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="71">
+      <c r="E49" s="43">
         <v>7</v>
       </c>
       <c r="F49" s="40">
@@ -28844,12 +29480,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28967,15 +29600,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FC08C63-3A3F-49CD-B87A-9AE73DC1958C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0875EAC0-2C2E-490C-A2B3-06FAA635C18C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28997,10 +29634,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0875EAC0-2C2E-490C-A2B3-06FAA635C18C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FC08C63-3A3F-49CD-B87A-9AE73DC1958C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>